--- a/data/Letras Activas.xlsx
+++ b/data/Letras Activas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\App DCF Dani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC9AFC9-B7EB-4E77-95DE-80FAC78C24CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70E782-B6D6-4D89-9128-3F5A7CA13AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD73C5C9-5C4F-49BA-8BAE-0ED83DF77E5D}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
-    <t>S10N5</t>
-  </si>
-  <si>
-    <t>S28N5</t>
-  </si>
-  <si>
     <t>T15D5</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
     <t>S29Y6</t>
   </si>
   <si>
-    <t>10/11/2025</t>
-  </si>
-  <si>
-    <t>28/11/2025</t>
-  </si>
-  <si>
     <t>15/12/2025</t>
   </si>
   <si>
@@ -126,6 +114,18 @@
   </si>
   <si>
     <t>15/1/2027</t>
+  </si>
+  <si>
+    <t>S30A6</t>
+  </si>
+  <si>
+    <t>S31G6</t>
+  </si>
+  <si>
+    <t>S30O6</t>
+  </si>
+  <si>
+    <t>T30A7</t>
   </si>
 </sst>
 </file>
@@ -161,8 +161,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,155 +503,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE54452-AF50-4305-B8DA-DFD46BDACA81}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>122.25</v>
+        <v>170.84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>123.56</v>
+        <v>119.06</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>170.84</v>
+        <v>142.22999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>119.06</v>
+        <v>144.97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>142.22999999999999</v>
+        <v>125.84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>144.97</v>
+        <v>135.24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <v>46142</v>
       </c>
       <c r="C8">
-        <v>125.84</v>
+        <v>127.49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>135.24</v>
+        <v>132.04</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>132.04</v>
+        <v>144.63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>144.63</v>
+        <v>144.88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>46265</v>
       </c>
       <c r="C12">
-        <v>144.88</v>
+        <v>127.06</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C13">
         <v>152.1</v>
@@ -653,24 +659,46 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
         <v>28</v>
       </c>
+      <c r="B14" s="1">
+        <v>46325</v>
+      </c>
       <c r="C14">
-        <v>161.13999999999999</v>
+        <v>135.28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>161.13999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>161.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
-        <v>161.1</v>
+      <c r="B17" s="1">
+        <v>46507</v>
+      </c>
+      <c r="C17">
+        <v>157.34</v>
       </c>
     </row>
   </sheetData>

--- a/data/Letras Activas.xlsx
+++ b/data/Letras Activas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\App DCF Dani\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\App DCF Dani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70E782-B6D6-4D89-9128-3F5A7CA13AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7744D20E-6E2D-4695-A74A-0AB36C04949A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD73C5C9-5C4F-49BA-8BAE-0ED83DF77E5D}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>T15D5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>T30E6</t>
   </si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>S29Y6</t>
-  </si>
-  <si>
-    <t>15/12/2025</t>
   </si>
   <si>
     <t>16/1/2026</t>
@@ -166,7 +160,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -503,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE54452-AF50-4305-B8DA-DFD46BDACA81}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,35 +510,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>170.84</v>
+        <v>119.06</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>119.06</v>
+        <v>142.22999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,120 +546,120 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>142.22999999999999</v>
+        <v>144.97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5">
-        <v>144.97</v>
+        <v>125.84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C6">
-        <v>125.84</v>
+        <v>135.24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>46142</v>
       </c>
       <c r="C7">
-        <v>135.24</v>
+        <v>127.49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1">
-        <v>46142</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>127.49</v>
+        <v>132.04</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>132.04</v>
+        <v>144.63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>144.63</v>
+        <v>144.88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>46265</v>
       </c>
       <c r="C11">
-        <v>144.88</v>
+        <v>127.06</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1">
-        <v>46265</v>
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>127.06</v>
+        <v>152.1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>46325</v>
       </c>
       <c r="C13">
-        <v>152.1</v>
+        <v>135.28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1">
-        <v>46325</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>135.28</v>
+        <v>161.13999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,31 +667,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>161.13999999999999</v>
+        <v>161.1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>46507</v>
       </c>
       <c r="C16">
-        <v>161.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1">
-        <v>46507</v>
-      </c>
-      <c r="C17">
         <v>157.34</v>
       </c>
     </row>

--- a/data/Letras Activas.xlsx
+++ b/data/Letras Activas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\App DCF Dani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7744D20E-6E2D-4695-A74A-0AB36C04949A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5455A5CA-AAD7-4BC9-8839-C09B0555C7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD73C5C9-5C4F-49BA-8BAE-0ED83DF77E5D}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{CD73C5C9-5C4F-49BA-8BAE-0ED83DF77E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>T30E6</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>T30A7</t>
+  </si>
+  <si>
+    <t>S17A6</t>
+  </si>
+  <si>
+    <t>S30N6</t>
+  </si>
+  <si>
+    <t>T31Y7</t>
   </si>
 </sst>
 </file>
@@ -497,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE54452-AF50-4305-B8DA-DFD46BDACA81}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,112 +585,145 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>46142</v>
+        <v>46129</v>
       </c>
       <c r="C7">
-        <v>127.49</v>
+        <v>110.13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>46142</v>
       </c>
       <c r="C8">
-        <v>132.04</v>
+        <v>127.49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>144.63</v>
+        <v>132.04</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>144.88</v>
+        <v>144.63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
-        <v>46265</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>127.06</v>
+        <v>144.88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>46265</v>
       </c>
       <c r="C12">
-        <v>152.1</v>
+        <v>127.06</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1">
-        <v>46325</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>135.28</v>
+        <v>152.1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <v>46325</v>
       </c>
       <c r="C14">
-        <v>161.13999999999999</v>
+        <v>135.28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="1">
+        <v>46356</v>
       </c>
       <c r="C15">
-        <v>161.1</v>
+        <v>129.88999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>161.13999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>161.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="1">
         <v>46507</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>157.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>46538</v>
+      </c>
+      <c r="C19">
+        <v>151.56</v>
       </c>
     </row>
   </sheetData>
